--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhijit.a.pande\Documents\GitHub\AIML_CAPSTONE_NLP_B_GRP_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB397384-C00A-4E00-B5FE-44D0CD5D654B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4E2472-E974-460B-8DEE-75FAE73B0D3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4CF8E403-727E-4AD3-B9CF-6FEA890FFBCA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>GIT Master Repo</t>
   </si>
@@ -84,6 +84,48 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>WEEK 2</t>
+  </si>
+  <si>
+    <t>Data Augmentation and Development of New Data Frames</t>
+  </si>
+  <si>
+    <t>Pickling of Data</t>
+  </si>
+  <si>
+    <t>Doc2Vec Exploration with Gensim</t>
+  </si>
+  <si>
+    <t>Translation (follow up with Sumit)</t>
+  </si>
+  <si>
+    <t>Abhik, Abhijit</t>
+  </si>
+  <si>
+    <t>Creation of 3 datasets</t>
+  </si>
+  <si>
+    <t>Deep Learning</t>
+  </si>
+  <si>
+    <t>Feature Engineering (TFIDF Vectorizer, Ngrams, Feature development, weights for balancing)</t>
+  </si>
+  <si>
+    <t>Hyper parameter tuning</t>
+  </si>
+  <si>
+    <t>Machine learning models (SVM, Logistic, XGBoost)</t>
+  </si>
+  <si>
+    <t>Create Report</t>
+  </si>
+  <si>
+    <t>Validate the deliverables against Requirements</t>
+  </si>
+  <si>
+    <t>Abhik, Arun, Sayantika</t>
   </si>
 </sst>
 </file>
@@ -146,8 +188,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F9D57DB-492C-456C-87C2-037C6E255C39}" name="Table1" displayName="Table1" ref="A1:D8" totalsRowShown="0">
-  <autoFilter ref="A1:D8" xr:uid="{1B2A0889-DA9C-4DCD-B947-E20D792BAF00}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F9D57DB-492C-456C-87C2-037C6E255C39}" name="Table1" displayName="Table1" ref="A1:D19" totalsRowShown="0">
+  <autoFilter ref="A1:D19" xr:uid="{1B2A0889-DA9C-4DCD-B947-E20D792BAF00}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{56084F22-F7BC-423D-8293-830C38D6DB50}" name="Week" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{D02E22E5-A0C3-417C-8499-D527E75F7622}" name="Task"/>
@@ -455,17 +497,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F8B665-254D-4F16-81BB-67DB76A18782}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="73.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -507,6 +549,9 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -518,6 +563,9 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -529,6 +577,9 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -540,6 +591,9 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -551,6 +605,9 @@
       <c r="C7" t="s">
         <v>3</v>
       </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -560,6 +617,130 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhijit.a.pande\Documents\GitHub\AIML_CAPSTONE_NLP_B_GRP_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4E2472-E974-460B-8DEE-75FAE73B0D3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9994EA99-6830-4833-B6E6-A457F11B88BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4CF8E403-727E-4AD3-B9CF-6FEA890FFBCA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
   <si>
     <t>GIT Master Repo</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Abhik, Arun, Sayantika</t>
+  </si>
+  <si>
+    <t>Rule based system</t>
   </si>
 </sst>
 </file>
@@ -188,8 +191,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F9D57DB-492C-456C-87C2-037C6E255C39}" name="Table1" displayName="Table1" ref="A1:D19" totalsRowShown="0">
-  <autoFilter ref="A1:D19" xr:uid="{1B2A0889-DA9C-4DCD-B947-E20D792BAF00}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F9D57DB-492C-456C-87C2-037C6E255C39}" name="Table1" displayName="Table1" ref="A1:D20" totalsRowShown="0">
+  <autoFilter ref="A1:D20" xr:uid="{1B2A0889-DA9C-4DCD-B947-E20D792BAF00}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{56084F22-F7BC-423D-8293-830C38D6DB50}" name="Week" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{D02E22E5-A0C3-417C-8499-D527E75F7622}" name="Task"/>
@@ -497,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F8B665-254D-4F16-81BB-67DB76A18782}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,6 +747,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhijit.a.pande\Documents\GitHub\AIML_CAPSTONE_NLP_B_GRP_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9994EA99-6830-4833-B6E6-A457F11B88BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14FB4D5-CB40-4B9D-BA43-AAF06D0DEADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4CF8E403-727E-4AD3-B9CF-6FEA890FFBCA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
   <si>
     <t>GIT Master Repo</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Rule based system</t>
+  </si>
+  <si>
+    <t>Improvement of visualizations</t>
   </si>
 </sst>
 </file>
@@ -191,8 +194,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F9D57DB-492C-456C-87C2-037C6E255C39}" name="Table1" displayName="Table1" ref="A1:D20" totalsRowShown="0">
-  <autoFilter ref="A1:D20" xr:uid="{1B2A0889-DA9C-4DCD-B947-E20D792BAF00}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F9D57DB-492C-456C-87C2-037C6E255C39}" name="Table1" displayName="Table1" ref="A1:D21" totalsRowShown="0">
+  <autoFilter ref="A1:D21" xr:uid="{1B2A0889-DA9C-4DCD-B947-E20D792BAF00}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{56084F22-F7BC-423D-8293-830C38D6DB50}" name="Week" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{D02E22E5-A0C3-417C-8499-D527E75F7622}" name="Task"/>
@@ -500,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F8B665-254D-4F16-81BB-67DB76A18782}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,6 +639,9 @@
       <c r="C9" t="s">
         <v>3</v>
       </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -645,7 +651,10 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -680,6 +689,9 @@
       <c r="C13" t="s">
         <v>3</v>
       </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -753,6 +765,17 @@
       </c>
       <c r="B20" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhijit.a.pande\Documents\GitHub\AIML_CAPSTONE_NLP_B_GRP_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14FB4D5-CB40-4B9D-BA43-AAF06D0DEADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DEDD48-8BFD-4295-AA94-CC2ED20131E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4CF8E403-727E-4AD3-B9CF-6FEA890FFBCA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
   <si>
     <t>GIT Master Repo</t>
   </si>
@@ -132,16 +132,52 @@
   </si>
   <si>
     <t>Improvement of visualizations</t>
+  </si>
+  <si>
+    <t>Doubt</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>WEEK3</t>
+  </si>
+  <si>
+    <t>Move Translation to Goslate</t>
+  </si>
+  <si>
+    <t>Resolved. Increase features</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Good to have. Not Mandatory</t>
+  </si>
+  <si>
+    <t>Reduce only to synonyms</t>
+  </si>
+  <si>
+    <t>We need to experiment and figure out if Cleaning is impacting this. And try out Goslate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -194,13 +230,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F9D57DB-492C-456C-87C2-037C6E255C39}" name="Table1" displayName="Table1" ref="A1:D21" totalsRowShown="0">
-  <autoFilter ref="A1:D21" xr:uid="{1B2A0889-DA9C-4DCD-B947-E20D792BAF00}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F9D57DB-492C-456C-87C2-037C6E255C39}" name="Table1" displayName="Table1" ref="A1:F22" totalsRowShown="0">
+  <autoFilter ref="A1:F22" xr:uid="{1B2A0889-DA9C-4DCD-B947-E20D792BAF00}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{56084F22-F7BC-423D-8293-830C38D6DB50}" name="Week" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{D02E22E5-A0C3-417C-8499-D527E75F7622}" name="Task"/>
     <tableColumn id="3" xr3:uid="{FF2D9910-2001-4280-84CA-9EB3B2B3A020}" name="Owner"/>
     <tableColumn id="4" xr3:uid="{86D1D916-33C5-4D25-8463-EF9F0B0700D5}" name="Status"/>
+    <tableColumn id="5" xr3:uid="{F5833AAE-446C-437C-9C8E-47A0E2BBA3B3}" name="Column1"/>
+    <tableColumn id="6" xr3:uid="{C7CA6A14-1991-4296-8051-071BBA696ABA}" name="Column2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -503,21 +541,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F8B665-254D-4F16-81BB-67DB76A18782}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="73.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -530,8 +568,14 @@
       <c r="D1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -545,7 +589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -559,7 +603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -573,7 +617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -587,7 +631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -600,8 +644,14 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -615,7 +665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -628,8 +678,14 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -643,7 +699,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -657,7 +713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -667,8 +723,14 @@
       <c r="C11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -679,7 +741,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -693,7 +755,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -703,8 +765,14 @@
       <c r="C14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -714,8 +782,11 @@
       <c r="C15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -778,7 +849,16 @@
         <v>2</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhijit.a.pande\Documents\GitHub\AIML_CAPSTONE_NLP_B_GRP_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DEDD48-8BFD-4295-AA94-CC2ED20131E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF90D61-EDE8-443A-8B35-E9092D06A41E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4CF8E403-727E-4AD3-B9CF-6FEA890FFBCA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
   <si>
     <t>GIT Master Repo</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Word Vocabs and Tokens</t>
   </si>
   <si>
-    <t>Data Augmentation</t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
@@ -98,12 +95,6 @@
     <t>Doc2Vec Exploration with Gensim</t>
   </si>
   <si>
-    <t>Translation (follow up with Sumit)</t>
-  </si>
-  <si>
-    <t>Abhik, Abhijit</t>
-  </si>
-  <si>
     <t>Creation of 3 datasets</t>
   </si>
   <si>
@@ -113,9 +104,6 @@
     <t>Feature Engineering (TFIDF Vectorizer, Ngrams, Feature development, weights for balancing)</t>
   </si>
   <si>
-    <t>Hyper parameter tuning</t>
-  </si>
-  <si>
     <t>Machine learning models (SVM, Logistic, XGBoost)</t>
   </si>
   <si>
@@ -125,18 +113,12 @@
     <t>Validate the deliverables against Requirements</t>
   </si>
   <si>
-    <t>Abhik, Arun, Sayantika</t>
-  </si>
-  <si>
     <t>Rule based system</t>
   </si>
   <si>
     <t>Improvement of visualizations</t>
   </si>
   <si>
-    <t>Doubt</t>
-  </si>
-  <si>
     <t>Column1</t>
   </si>
   <si>
@@ -146,9 +128,6 @@
     <t>WEEK3</t>
   </si>
   <si>
-    <t>Move Translation to Goslate</t>
-  </si>
-  <si>
     <t>Resolved. Increase features</t>
   </si>
   <si>
@@ -158,10 +137,34 @@
     <t>Good to have. Not Mandatory</t>
   </si>
   <si>
-    <t>Reduce only to synonyms</t>
-  </si>
-  <si>
     <t>We need to experiment and figure out if Cleaning is impacting this. And try out Goslate</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Sayantika to update predictions, examples and graphing</t>
+  </si>
+  <si>
+    <t>Need to append graphs and prediction examples</t>
+  </si>
+  <si>
+    <t>We need to connect on Tuesday and put an outline together</t>
+  </si>
+  <si>
+    <t>Use tensor board for visualizations and find hyperparameters</t>
+  </si>
+  <si>
+    <t>Need to graph before and after and provide examples of augmentation and translation</t>
+  </si>
+  <si>
+    <t>Almost Complete</t>
+  </si>
+  <si>
+    <t>Move Translation to Goslate/Improving translations</t>
+  </si>
+  <si>
+    <t>Stratified Training data split</t>
   </si>
 </sst>
 </file>
@@ -230,8 +233,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F9D57DB-492C-456C-87C2-037C6E255C39}" name="Table1" displayName="Table1" ref="A1:F22" totalsRowShown="0">
-  <autoFilter ref="A1:F22" xr:uid="{1B2A0889-DA9C-4DCD-B947-E20D792BAF00}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F9D57DB-492C-456C-87C2-037C6E255C39}" name="Table1" displayName="Table1" ref="A1:F21" totalsRowShown="0">
+  <autoFilter ref="A1:F21" xr:uid="{1B2A0889-DA9C-4DCD-B947-E20D792BAF00}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{56084F22-F7BC-423D-8293-830C38D6DB50}" name="Week" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{D02E22E5-A0C3-417C-8499-D527E75F7622}" name="Task"/>
@@ -541,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F8B665-254D-4F16-81BB-67DB76A18782}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,27 +560,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -586,12 +589,12 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -600,12 +603,12 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -614,12 +617,12 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -628,12 +631,12 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -642,18 +645,15 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -662,32 +662,29 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -696,165 +693,196 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
+      <c r="D21" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhijit.a.pande\Documents\GitHub\AIML_CAPSTONE_NLP_B_GRP_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF90D61-EDE8-443A-8B35-E9092D06A41E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F523F9-E0A7-4023-9D01-11B5022352AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4CF8E403-727E-4AD3-B9CF-6FEA890FFBCA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4CF8E403-727E-4AD3-B9CF-6FEA890FFBCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F9D57DB-492C-456C-87C2-037C6E255C39}" name="Table1" displayName="Table1" ref="A1:F21" totalsRowShown="0">
-  <autoFilter ref="A1:F21" xr:uid="{1B2A0889-DA9C-4DCD-B947-E20D792BAF00}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{56084F22-F7BC-423D-8293-830C38D6DB50}" name="Week" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{D02E22E5-A0C3-417C-8499-D527E75F7622}" name="Task"/>
@@ -547,7 +546,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +675,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
         <v>40</v>
@@ -809,7 +808,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -882,7 +881,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhijit.a.pande\Documents\GitHub\AIML_CAPSTONE_NLP_B_GRP_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F523F9-E0A7-4023-9D01-11B5022352AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3966079D-0995-481A-AC6E-46A3A3E603E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4CF8E403-727E-4AD3-B9CF-6FEA890FFBCA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
   <si>
     <t>GIT Master Repo</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Stratified Training data split</t>
+  </si>
+  <si>
+    <t>WEEK 3</t>
   </si>
 </sst>
 </file>
@@ -234,6 +237,21 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F9D57DB-492C-456C-87C2-037C6E255C39}" name="Table1" displayName="Table1" ref="A1:F21" totalsRowShown="0">
+  <autoFilter ref="A1:F21" xr:uid="{6B2D9500-BCDD-4273-9860-C80BE7AF3AE6}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Almost Complete"/>
+        <filter val="Pending"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters blank="1">
+        <filter val="Need to append graphs and prediction examples"/>
+        <filter val="Sayantika to update predictions, examples and graphing"/>
+        <filter val="We need to connect on Tuesday and put an outline together"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{56084F22-F7BC-423D-8293-830C38D6DB50}" name="Week" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{D02E22E5-A0C3-417C-8499-D527E75F7622}" name="Task"/>
@@ -546,7 +564,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +595,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -591,7 +609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -605,7 +623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -619,7 +637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -633,7 +651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -650,7 +668,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -664,7 +682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -681,7 +699,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -695,7 +713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -715,7 +733,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -729,7 +747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -797,7 +815,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -839,9 +857,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
         <v>42</v>
@@ -858,7 +876,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
@@ -870,7 +888,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhijit.a.pande\Documents\GitHub\AIML_CAPSTONE_NLP_B_GRP_4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhik Kar\OneDrive\Documents\GitHub\AIML_CAPSTONE_NLP_B_GRP_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3966079D-0995-481A-AC6E-46A3A3E603E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4CF8E403-727E-4AD3-B9CF-6FEA890FFBCA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
   <si>
     <t>GIT Master Repo</t>
   </si>
@@ -168,12 +167,39 @@
   </si>
   <si>
     <t>WEEK 3</t>
+  </si>
+  <si>
+    <t>Add New Machine Learning Techniques: LightGBM, CatBoost, Random forest With Random and Grid search for all of these</t>
+  </si>
+  <si>
+    <t>SVC try with different kernel in grid search</t>
+  </si>
+  <si>
+    <t>In the accuracy score table also add scores from data without augmentation</t>
+  </si>
+  <si>
+    <t>Model interpretation - Lime and other packages</t>
+  </si>
+  <si>
+    <t>Add Embedding projection using Tensor board</t>
+  </si>
+  <si>
+    <t>Add visualization for train, test data and show all groups are present in both set</t>
+  </si>
+  <si>
+    <t>Deep learning hypeparameter tuning using packages</t>
+  </si>
+  <si>
+    <t>WEEK 4</t>
+  </si>
+  <si>
+    <t>Clustering of data and visualization: Topic Modeling (use LDAPyviz), Document clustering</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -209,10 +235,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -236,8 +265,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F9D57DB-492C-456C-87C2-037C6E255C39}" name="Table1" displayName="Table1" ref="A1:F21" totalsRowShown="0">
-  <autoFilter ref="A1:F21" xr:uid="{6B2D9500-BCDD-4273-9860-C80BE7AF3AE6}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F29" totalsRowShown="0">
+  <autoFilter ref="A1:F29">
     <filterColumn colId="3">
       <filters>
         <filter val="Almost Complete"/>
@@ -253,12 +282,12 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{56084F22-F7BC-423D-8293-830C38D6DB50}" name="Week" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{D02E22E5-A0C3-417C-8499-D527E75F7622}" name="Task"/>
-    <tableColumn id="3" xr3:uid="{FF2D9910-2001-4280-84CA-9EB3B2B3A020}" name="Owner"/>
-    <tableColumn id="4" xr3:uid="{86D1D916-33C5-4D25-8463-EF9F0B0700D5}" name="Status"/>
-    <tableColumn id="5" xr3:uid="{F5833AAE-446C-437C-9C8E-47A0E2BBA3B3}" name="Column1"/>
-    <tableColumn id="6" xr3:uid="{C7CA6A14-1991-4296-8051-071BBA696ABA}" name="Column2"/>
+    <tableColumn id="1" name="Week" dataDxfId="0"/>
+    <tableColumn id="2" name="Task"/>
+    <tableColumn id="3" name="Owner"/>
+    <tableColumn id="4" name="Status"/>
+    <tableColumn id="5" name="Column1"/>
+    <tableColumn id="6" name="Column2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -560,11 +589,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F8B665-254D-4F16-81BB-67DB76A18782}">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,11 +931,124 @@
         <v>15</v>
       </c>
     </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhik Kar\OneDrive\Documents\GitHub\AIML_CAPSTONE_NLP_B_GRP_4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhijit.a.pande\Documents\GitHub\AIML_CAPSTONE_NLP_B_GRP_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B1B941-55B9-427B-B278-085877262876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="58">
   <si>
     <t>GIT Master Repo</t>
   </si>
@@ -151,15 +144,9 @@
     <t>We need to connect on Tuesday and put an outline together</t>
   </si>
   <si>
-    <t>Use tensor board for visualizations and find hyperparameters</t>
-  </si>
-  <si>
     <t>Need to graph before and after and provide examples of augmentation and translation</t>
   </si>
   <si>
-    <t>Almost Complete</t>
-  </si>
-  <si>
     <t>Move Translation to Goslate/Improving translations</t>
   </si>
   <si>
@@ -178,12 +165,6 @@
     <t>In the accuracy score table also add scores from data without augmentation</t>
   </si>
   <si>
-    <t>Model interpretation - Lime and other packages</t>
-  </si>
-  <si>
-    <t>Add Embedding projection using Tensor board</t>
-  </si>
-  <si>
     <t>Add visualization for train, test data and show all groups are present in both set</t>
   </si>
   <si>
@@ -193,13 +174,37 @@
     <t>WEEK 4</t>
   </si>
   <si>
-    <t>Clustering of data and visualization: Topic Modeling (use LDAPyviz), Document clustering</t>
+    <t>Use tensor board for visualizations and find hyperparameters, Embedding Projection</t>
+  </si>
+  <si>
+    <t>Potential Conversion to Naïve Bayes</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Used with Adaptive Learning. Keras Tuner</t>
+  </si>
+  <si>
+    <t>Model interpretation - Lime and other packages - use SHAP  instead</t>
+  </si>
+  <si>
+    <t>Sayantika/Abhijit</t>
+  </si>
+  <si>
+    <t>Clustering of data and visualization, Document clustering (Kmeans)</t>
+  </si>
+  <si>
+    <t>WEEK 5</t>
+  </si>
+  <si>
+    <t>Topic Modeling (use LDAPyviz)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -215,12 +220,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -235,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -243,6 +254,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -265,29 +280,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F29" totalsRowShown="0">
-  <autoFilter ref="A1:F29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F29" totalsRowShown="0">
+  <autoFilter ref="A1:F29" xr:uid="{81639BB4-4A06-4957-8861-8D37DCB9AE6D}">
     <filterColumn colId="3">
       <filters>
-        <filter val="Almost Complete"/>
         <filter val="Pending"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters blank="1">
-        <filter val="Need to append graphs and prediction examples"/>
-        <filter val="Sayantika to update predictions, examples and graphing"/>
-        <filter val="We need to connect on Tuesday and put an outline together"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" name="Week" dataDxfId="0"/>
-    <tableColumn id="2" name="Task"/>
-    <tableColumn id="3" name="Owner"/>
-    <tableColumn id="4" name="Status"/>
-    <tableColumn id="5" name="Column1"/>
-    <tableColumn id="6" name="Column2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Week" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Owner"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Status"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -589,11 +596,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +732,7 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -742,7 +749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -793,7 +800,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -804,13 +811,13 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -821,26 +828,26 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -858,18 +865,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>35</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -888,32 +898,32 @@
     </row>
     <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
+    <row r="20" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -922,91 +932,91 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="25" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
+    <row r="26" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -1017,29 +1027,32 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" t="s">
         <v>52</v>
       </c>
-      <c r="B28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
+    </row>
+    <row r="29" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhijit.a.pande\Documents\GitHub\AIML_CAPSTONE_NLP_B_GRP_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B1B941-55B9-427B-B278-085877262876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F627F2DD-F1C1-4952-BFC6-CB606A6FD62A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="57">
   <si>
     <t>GIT Master Repo</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>Potential Conversion to Naïve Bayes</t>
-  </si>
-  <si>
-    <t>Closed</t>
   </si>
   <si>
     <t>Used with Adaptive Learning. Keras Tuner</t>
@@ -281,13 +278,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F29" totalsRowShown="0">
-  <autoFilter ref="A1:F29" xr:uid="{81639BB4-4A06-4957-8861-8D37DCB9AE6D}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Pending"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Week" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task"/>
@@ -600,7 +590,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,7 +621,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -645,7 +635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -659,7 +649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -673,7 +663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -687,7 +677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -704,7 +694,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -718,7 +708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -735,7 +725,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -769,7 +759,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -783,7 +773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -800,7 +790,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -817,7 +807,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -842,7 +832,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>35</v>
@@ -851,7 +841,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -896,7 +886,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -927,7 +917,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -941,7 +931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -955,7 +945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
@@ -980,7 +970,7 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -988,7 +978,7 @@
         <v>48</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>7</v>
@@ -1002,7 +992,7 @@
         <v>48</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>2</v>
@@ -1022,7 +1012,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1036,18 +1026,18 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
         <v>51</v>
-      </c>
-      <c r="F28" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>7</v>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,17 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhijit.a.pande\Documents\GitHub\AIML_CAPSTONE_NLP_B_GRP_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F627F2DD-F1C1-4952-BFC6-CB606A6FD62A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FED539B-0BC9-4C1D-ABDC-F1F80B81E707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -278,6 +286,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F29" totalsRowShown="0">
+  <autoFilter ref="A1:F29" xr:uid="{EE06DA43-9E24-46F2-BC93-47EBE67A5C6D}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Week" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task"/>
@@ -590,7 +599,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,7 +875,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>50</v>
@@ -883,7 +892,7 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -914,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -984,7 +993,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -998,7 +1007,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1043,7 +1052,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
